--- a/YXS-FOC：CAN通信协议.xlsx
+++ b/YXS-FOC：CAN通信协议.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YXS\GD32_Project\YXS-FOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C98E043-33E7-4BCC-BAEA-FF3D9074A6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CADF92-84C9-47C0-B36D-4BC1411D63C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="协议格式" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="212">
   <si>
     <t>帧类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -272,12 +272,6 @@
     <t>MM_PositionControl</t>
   </si>
   <si>
-    <t>MM_OpenLoopVF</t>
-  </si>
-  <si>
-    <t>MM_OpenLoopIF</t>
-  </si>
-  <si>
     <t>MM_AnticoggingCalibration</t>
   </si>
   <si>
@@ -313,14 +307,6 @@
   </si>
   <si>
     <t>位置控制模式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开环VF控制模式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开环IF控制模式</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -837,10 +823,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>心跳周期(ms,5-255ms)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>抗齿槽力矩补偿校准标志(0:未校准，1:已校准)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -900,10 +882,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>内部测试模式，不可外部设置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>不可外部设置</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -965,6 +943,53 @@
   </si>
   <si>
     <t>高温警告( &gt;55℃ )</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>当前电流Iq(A)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前速度(rad/s)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Position</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>累积位置(rad)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>心跳周期(ms,0-255ms)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反转4P接口模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从节点ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x1D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反转4P接口模式,若当前为串口模式,则反转为烧录模式;反之则为烧录模式反转为串口模式(2312S电机特有)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1143,7 +1168,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1265,6 +1290,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1272,7 +1334,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1370,8 +1432,125 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1379,87 +1558,6 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1469,40 +1567,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1786,89 +1863,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M49"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.3984375" style="13" customWidth="1"/>
+    <col min="1" max="1" width="26.625" style="13" customWidth="1"/>
     <col min="2" max="2" width="19" style="13" customWidth="1"/>
-    <col min="3" max="3" width="18.59765625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="14.1328125" style="13" customWidth="1"/>
-    <col min="5" max="12" width="22.59765625" style="13" customWidth="1"/>
-    <col min="13" max="13" width="126.33203125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="18.625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="14.125" style="13" customWidth="1"/>
+    <col min="5" max="12" width="22.625" style="13" customWidth="1"/>
+    <col min="13" max="13" width="139.75" style="13" customWidth="1"/>
     <col min="14" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A1" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-    </row>
-    <row r="3" spans="1:13" ht="20.25" x14ac:dyDescent="0.4">
-      <c r="A3" s="36" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+    </row>
+    <row r="3" spans="1:13" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36" t="s">
+      <c r="C3" s="75"/>
+      <c r="D3" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36" t="s">
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="20.25" x14ac:dyDescent="0.4">
-      <c r="A4" s="36"/>
+    <row r="4" spans="1:13" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="75"/>
       <c r="B4" s="21" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="36"/>
+      <c r="D4" s="75"/>
       <c r="E4" s="14" t="s">
         <v>2</v>
       </c>
@@ -1893,72 +1970,72 @@
       <c r="L4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="36"/>
-    </row>
-    <row r="5" spans="1:13" ht="60.75" x14ac:dyDescent="0.4">
-      <c r="A5" s="45" t="s">
+      <c r="M4" s="75"/>
+    </row>
+    <row r="5" spans="1:13" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="38" t="s">
+      <c r="B5" s="70" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="64" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
+        <v>127</v>
+      </c>
+      <c r="F5" s="76" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
       <c r="J5" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="L5" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="L5" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="42" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="45"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
+      <c r="M5" s="37" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="68"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
       <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
       <c r="J6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="44"/>
-      <c r="M6" s="42"/>
-    </row>
-    <row r="7" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L6" s="74"/>
+      <c r="M6" s="37"/>
+    </row>
+    <row r="7" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>20</v>
@@ -1966,26 +2043,26 @@
       <c r="D7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
       <c r="M7" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>21</v>
@@ -1993,503 +2070,515 @@
       <c r="D8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
       <c r="M8" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="50" t="s">
+    <row r="9" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="C9" s="46" t="s">
-        <v>180</v>
-      </c>
-      <c r="D9" s="46" t="s">
+      <c r="B9" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="62" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" s="62" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="35" t="s">
+      <c r="F9" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="42" t="s">
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="37" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="50"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
+    <row r="10" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="61"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
       <c r="E10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="42"/>
-    </row>
-    <row r="11" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="40" t="s">
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="37"/>
+    </row>
+    <row r="11" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="41" t="s">
-        <v>181</v>
-      </c>
-      <c r="D11" s="41" t="s">
+      <c r="B11" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="69" t="s">
+        <v>176</v>
+      </c>
+      <c r="D11" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="43" t="s">
+      <c r="E11" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="35" t="s">
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="42" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="40"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="38" t="s">
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="37" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="73"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="42"/>
-    </row>
-    <row r="13" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="52" t="s">
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="37"/>
+    </row>
+    <row r="13" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="C13" s="47" t="s">
-        <v>182</v>
-      </c>
-      <c r="D13" s="47" t="s">
+      <c r="B13" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="58" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="43" t="s">
+      <c r="E13" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="35" t="s">
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="42" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="52"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="53" t="s">
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="37" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="65"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="42"/>
-    </row>
-    <row r="15" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="39" t="s">
-        <v>200</v>
-      </c>
-      <c r="B15" s="68" t="s">
-        <v>126</v>
-      </c>
-      <c r="C15" s="48" t="s">
-        <v>183</v>
-      </c>
-      <c r="D15" s="48" t="s">
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="37"/>
+    </row>
+    <row r="15" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="D15" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E15" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="35" t="s">
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="42" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="39"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="38" t="s">
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="37" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="44"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="42"/>
-    </row>
-    <row r="17" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="50" t="s">
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="37"/>
+    </row>
+    <row r="17" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="C17" s="46" t="s">
-        <v>184</v>
-      </c>
-      <c r="D17" s="46" t="s">
+      <c r="B17" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="62" t="s">
+        <v>179</v>
+      </c>
+      <c r="D17" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="43" t="s">
+      <c r="E17" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="51" t="s">
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="42" t="s">
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="37" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="50"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="38" t="s">
+    <row r="18" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="61"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="47" t="s">
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="42"/>
-    </row>
-    <row r="19" spans="1:13" ht="23.25" x14ac:dyDescent="0.4">
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="37"/>
+    </row>
+    <row r="19" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
         <v>39</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="58" t="s">
+      <c r="E19" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
       <c r="M19" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="39" t="s">
-        <v>195</v>
-      </c>
-      <c r="B20" s="68" t="s">
-        <v>128</v>
-      </c>
-      <c r="C20" s="48" t="s">
+    <row r="20" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G20" s="51" t="s">
+        <v>185</v>
+      </c>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="37" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="44"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D20" s="48" t="s">
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="37"/>
+    </row>
+    <row r="22" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="61" t="s">
+        <v>190</v>
+      </c>
+      <c r="B22" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="G20" s="58" t="s">
+      <c r="E22" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="42" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="39"/>
-      <c r="B21" s="68"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="F21" s="5" t="s">
+      <c r="F22" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="42"/>
-    </row>
-    <row r="22" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="B22" s="68" t="s">
-        <v>128</v>
-      </c>
-      <c r="C22" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="48" t="s">
+    </row>
+    <row r="23" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="61"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F23" s="41"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="37"/>
+    </row>
+    <row r="24" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="80" t="s">
+        <v>208</v>
+      </c>
+      <c r="B24" s="81" t="s">
+        <v>209</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="83"/>
+      <c r="K24" s="83"/>
+      <c r="L24" s="84"/>
+      <c r="M24" s="11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="F22" s="78" t="s">
-        <v>191</v>
-      </c>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="72"/>
-      <c r="M22" s="42" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="39"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="F23" s="79"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="73"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="73"/>
-      <c r="L23" s="74"/>
-      <c r="M23" s="42"/>
-    </row>
-    <row r="24" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="69" t="s">
-        <v>126</v>
-      </c>
-      <c r="C24" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="47" t="s">
+      <c r="E25" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="K25" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="M25" s="47" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="57"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M26" s="47"/>
+    </row>
+    <row r="27" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I24" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="K24" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="M24" s="77" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="60"/>
-      <c r="B25" s="70"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M25" s="77"/>
-    </row>
-    <row r="26" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="56" t="s">
-        <v>128</v>
-      </c>
-      <c r="C26" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="51" t="s">
+      <c r="E27" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="77"/>
-    </row>
-    <row r="27" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="55"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="77"/>
-    </row>
-    <row r="28" spans="1:13" ht="23.25" x14ac:dyDescent="0.4">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="11"/>
-    </row>
-    <row r="29" spans="1:13" ht="23.25" x14ac:dyDescent="0.4">
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="47"/>
+    </row>
+    <row r="28" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="53"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="47"/>
+    </row>
+    <row r="29" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="1"/>
@@ -2504,7 +2593,7 @@
       <c r="L29" s="1"/>
       <c r="M29" s="11"/>
     </row>
-    <row r="30" spans="1:13" ht="23.25" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="1"/>
@@ -2519,7 +2608,7 @@
       <c r="L30" s="1"/>
       <c r="M30" s="11"/>
     </row>
-    <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
       <c r="C31" s="1"/>
@@ -2534,11 +2623,11 @@
       <c r="L31" s="1"/>
       <c r="M31" s="11"/>
     </row>
-    <row r="32" spans="1:13" ht="20.25" x14ac:dyDescent="0.4">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
+    <row r="32" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -2549,7 +2638,7 @@
       <c r="L32" s="1"/>
       <c r="M32" s="11"/>
     </row>
-    <row r="33" spans="1:13" ht="20.25" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:13" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -2564,7 +2653,7 @@
       <c r="L33" s="1"/>
       <c r="M33" s="11"/>
     </row>
-    <row r="34" spans="1:13" ht="20.25" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:13" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -2579,22 +2668,22 @@
       <c r="L34" s="1"/>
       <c r="M34" s="11"/>
     </row>
-    <row r="35" spans="1:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:13" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
       <c r="M35" s="11"/>
     </row>
-    <row r="36" spans="1:13" ht="20.25" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -2609,7 +2698,7 @@
       <c r="L36" s="4"/>
       <c r="M36" s="11"/>
     </row>
-    <row r="37" spans="1:13" ht="20.25" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:13" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -2624,66 +2713,95 @@
       <c r="L37" s="4"/>
       <c r="M37" s="11"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M38" s="17"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:13" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="11"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M39" s="17"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M40" s="17"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M41" s="17"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M42" s="17"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M43" s="17"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M44" s="17"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M45" s="17"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M46" s="17"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M47" s="17"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M48" s="17"/>
     </row>
-    <row r="49" spans="13:13" x14ac:dyDescent="0.4">
+    <row r="49" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M49" s="17"/>
     </row>
+    <row r="50" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="17"/>
+    </row>
   </sheetData>
-  <mergeCells count="78">
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="F22:L23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="M24:M27"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="G20:L21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="E19:L19"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:L27"/>
+  <mergeCells count="79">
+    <mergeCell ref="E3:L3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="I15:L16"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="E7:L7"/>
+    <mergeCell ref="E8:L8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="I13:L14"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="F6:I6"/>
     <mergeCell ref="A1:M2"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="C17:C18"/>
@@ -2700,46 +2818,33 @@
     <mergeCell ref="E16:H16"/>
     <mergeCell ref="F9:L10"/>
     <mergeCell ref="I11:L12"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="E7:L7"/>
-    <mergeCell ref="E8:L8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="I13:L14"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="I15:L16"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E3:L3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="E19:L19"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:L28"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E24:L24"/>
+    <mergeCell ref="M25:M28"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="G20:L21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="F22:L23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2748,22 +2853,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0D07F3-2C3F-41E3-9E9F-2D362A6C60BD}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.33203125" style="27" customWidth="1"/>
-    <col min="2" max="2" width="33.86328125" style="27" customWidth="1"/>
-    <col min="3" max="3" width="29.265625" style="27" customWidth="1"/>
-    <col min="4" max="4" width="63.3984375" style="76" customWidth="1"/>
-    <col min="5" max="16384" width="9.06640625" style="27"/>
+    <col min="1" max="1" width="40.375" style="27" customWidth="1"/>
+    <col min="2" max="2" width="33.875" style="27" customWidth="1"/>
+    <col min="3" max="3" width="29.25" style="27" customWidth="1"/>
+    <col min="4" max="4" width="63.375" style="36" customWidth="1"/>
+    <col min="5" max="16384" width="9.125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>55</v>
       </c>
@@ -2774,10 +2879,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>58</v>
       </c>
@@ -2787,11 +2892,11 @@
       <c r="C2" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="75" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D2" s="35" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>60</v>
       </c>
@@ -2799,13 +2904,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="65" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>70</v>
+      </c>
+      <c r="D3" s="77" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>61</v>
       </c>
@@ -2813,11 +2918,11 @@
         <v>2</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="66"/>
-    </row>
-    <row r="5" spans="1:4" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>71</v>
+      </c>
+      <c r="D4" s="78"/>
+    </row>
+    <row r="5" spans="1:4" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>62</v>
       </c>
@@ -2825,23 +2930,23 @@
         <v>3</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="66"/>
-    </row>
-    <row r="6" spans="1:4" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>72</v>
+      </c>
+      <c r="D5" s="78"/>
+    </row>
+    <row r="6" spans="1:4" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B6" s="1">
         <v>4</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="67"/>
-    </row>
-    <row r="7" spans="1:4" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+      <c r="D6" s="79"/>
+    </row>
+    <row r="7" spans="1:4" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>63</v>
       </c>
@@ -2849,11 +2954,11 @@
         <v>5</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="75"/>
-    </row>
-    <row r="8" spans="1:4" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>73</v>
+      </c>
+      <c r="D7" s="35"/>
+    </row>
+    <row r="8" spans="1:4" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>64</v>
       </c>
@@ -2861,11 +2966,11 @@
         <v>6</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="75"/>
-    </row>
-    <row r="9" spans="1:4" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>74</v>
+      </c>
+      <c r="D8" s="35"/>
+    </row>
+    <row r="9" spans="1:4" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>65</v>
       </c>
@@ -2873,81 +2978,54 @@
         <v>7</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="75"/>
-    </row>
-    <row r="10" spans="1:4" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>75</v>
+      </c>
+      <c r="D9" s="35"/>
+    </row>
+    <row r="10" spans="1:4" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="1">
-        <v>8</v>
+        <v>67</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="65" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="1">
-        <v>9</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="67"/>
-    </row>
-    <row r="12" spans="1:4" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="75" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="28"/>
-    </row>
-    <row r="14" spans="1:4" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D10" s="35" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="28"/>
+    </row>
+    <row r="12" spans="1:4" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="D12" s="35"/>
+    </row>
+    <row r="13" spans="1:4" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="D13" s="35"/>
+    </row>
+    <row r="14" spans="1:4" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
-      <c r="D14" s="75"/>
-    </row>
-    <row r="15" spans="1:4" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="1"/>
-      <c r="D15" s="75"/>
-    </row>
-    <row r="16" spans="1:4" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="1"/>
-      <c r="D16" s="75"/>
-    </row>
-    <row r="17" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="18" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="2:4" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="1"/>
-      <c r="D19" s="75"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B20" s="26"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B21" s="26"/>
+      <c r="D14" s="35"/>
+    </row>
+    <row r="15" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="2:4" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="D17" s="35"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="26"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="D3:D6"/>
-    <mergeCell ref="D10:D11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2962,15 +3040,15 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="20.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.1328125" style="30" customWidth="1"/>
-    <col min="2" max="2" width="15.59765625" style="32" customWidth="1"/>
-    <col min="3" max="3" width="81.73046875" style="30" customWidth="1"/>
-    <col min="4" max="16384" width="9.06640625" style="30"/>
+    <col min="1" max="1" width="36.125" style="30" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="32" customWidth="1"/>
+    <col min="3" max="3" width="81.75" style="30" customWidth="1"/>
+    <col min="4" max="16384" width="9.125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>55</v>
       </c>
@@ -2981,62 +3059,62 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B2" s="32">
         <v>0</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B3" s="32">
         <v>1</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B4" s="32">
         <v>2</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="6" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="7" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="9" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="10" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="11" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="12" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="13" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="14" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="15" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="17" ht="22.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="18" ht="22.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="19" ht="22.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="20" ht="22.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="21" ht="22.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="22" ht="22.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="23" ht="22.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="24" ht="22.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="25" ht="22.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="26" ht="22.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="27" ht="22.5" customHeight="1" x14ac:dyDescent="0.45"/>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3048,18 +3126,18 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="71.796875" style="30" customWidth="1"/>
-    <col min="2" max="2" width="18.3984375" style="31" customWidth="1"/>
-    <col min="3" max="3" width="76.86328125" style="30" customWidth="1"/>
-    <col min="4" max="16384" width="9.06640625" style="30"/>
+    <col min="1" max="1" width="71.75" style="30" customWidth="1"/>
+    <col min="2" max="2" width="18.375" style="31" customWidth="1"/>
+    <col min="3" max="3" width="76.875" style="30" customWidth="1"/>
+    <col min="4" max="16384" width="9.125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>55</v>
       </c>
@@ -3070,224 +3148,224 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B2" s="34">
         <v>0</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B3" s="34">
         <v>1</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B4" s="34">
         <v>2</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B5" s="34">
         <v>3</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B6" s="34">
         <v>4</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B7" s="34">
         <v>5</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B8" s="34">
         <v>6</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B9" s="34">
         <v>7</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B10" s="34">
         <v>8</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B11" s="34">
         <v>9</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B12" s="34">
         <v>10</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B13" s="34">
         <v>210</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B14" s="34">
         <v>211</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B15" s="34">
         <v>212</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B16" s="34">
         <v>225</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B17" s="34">
         <v>240</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B18" s="34">
         <v>241</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B19" s="34">
         <v>242</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B20" s="34">
         <v>243</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3298,383 +3376,437 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF462D7-2357-47D3-94E3-97990B89148D}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" style="30" customWidth="1"/>
-    <col min="2" max="4" width="16.46484375" style="31" customWidth="1"/>
-    <col min="5" max="5" width="71.1328125" style="30" customWidth="1"/>
-    <col min="6" max="16384" width="9.06640625" style="30"/>
+    <col min="1" max="1" width="38.625" style="30" customWidth="1"/>
+    <col min="2" max="4" width="16.5" style="31" customWidth="1"/>
+    <col min="5" max="5" width="71.125" style="30" customWidth="1"/>
+    <col min="6" max="16384" width="9.125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B2" s="31">
         <v>0</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D2" s="31">
         <f>_xlfn.IFS(C2 = "uint8",1,C2 = "float",4)</f>
         <v>1</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B3" s="31">
         <v>1</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D3" s="31">
-        <f t="shared" ref="D3:D20" si="0">_xlfn.IFS(C3 = "uint8",1,C3 = "float",4)</f>
+        <f t="shared" ref="D3:D23" si="0">_xlfn.IFS(C3 = "uint8",1,C3 = "float",4)</f>
         <v>1</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B4" s="31">
         <v>2</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D4" s="31">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B5" s="31">
         <v>3</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D5" s="31">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B6" s="31">
         <v>4</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D6" s="31">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B7" s="31">
         <v>5</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D7" s="31">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B8" s="31">
         <v>6</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D8" s="31">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B9" s="31">
         <v>7</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D9" s="31">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B10" s="31">
         <v>8</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D10" s="31">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
-        <v>148</v>
+        <v>200</v>
       </c>
       <c r="B11" s="31">
         <v>9</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="D11" s="31">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B12" s="31">
         <v>10</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D12" s="31">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B13" s="31">
         <v>11</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D13" s="31">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
-        <v>151</v>
+        <v>203</v>
       </c>
       <c r="B14" s="31">
         <v>12</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="D14" s="31">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B15" s="31">
         <v>13</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D15" s="31">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B16" s="31">
         <v>14</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D16" s="31">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
       <c r="B17" s="31">
         <v>15</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="D17" s="31">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B18" s="31">
         <v>16</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D18" s="31">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B19" s="31">
         <v>17</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D19" s="31">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="B20" s="31">
         <v>18</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D20" s="31">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E20" s="30" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="B21" s="31">
+        <v>19</v>
+      </c>
+      <c r="C21" s="31" t="s">
         <v>173</v>
+      </c>
+      <c r="D21" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="B22" s="31">
+        <v>20</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="D22" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23" s="31">
+        <v>21</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="D23" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C20" xr:uid="{79CA3251-1E85-457B-8881-99E41EFF55EF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C23" xr:uid="{79CA3251-1E85-457B-8881-99E41EFF55EF}">
       <formula1>"uint8,float"</formula1>
     </dataValidation>
   </dataValidations>

--- a/YXS-FOC：CAN通信协议.xlsx
+++ b/YXS-FOC：CAN通信协议.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YXS\GD32_Project\YXS-FOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CADF92-84C9-47C0-B36D-4BC1411D63C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5ECC6A-33F0-4AE1-B080-B7647D2A625F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="协议格式" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="208">
   <si>
     <t>帧类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -634,14 +634,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>MaxCurrent</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxSpeed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Udc</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -698,14 +690,6 @@
   </si>
   <si>
     <t>电机电感(亨利)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>电机能承受的最大电流(A)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>电机能达到的最大速度(rad/s)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1438,125 +1422,140 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1566,21 +1565,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1865,7 +1849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
@@ -1881,71 +1865,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
-        <v>198</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
+      <c r="A1" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
     </row>
     <row r="3" spans="1:13" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75" t="s">
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="75"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="21" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="75"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="14" t="s">
         <v>2</v>
       </c>
@@ -1970,65 +1954,65 @@
       <c r="L4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="75"/>
+      <c r="M4" s="39"/>
     </row>
     <row r="5" spans="1:13" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="46" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F5" s="76" t="s">
+      <c r="F5" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
       <c r="J5" s="2" t="s">
         <v>128</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="L5" s="74" t="s">
+      <c r="L5" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="37" t="s">
-        <v>193</v>
+      <c r="M5" s="41" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="68"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
       <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="64" t="s">
+      <c r="F6" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
       <c r="J6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="74"/>
-      <c r="M6" s="37"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="41"/>
     </row>
     <row r="7" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
@@ -2043,16 +2027,16 @@
       <c r="D7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="67" t="s">
+      <c r="E7" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
       <c r="M7" s="11" t="s">
         <v>24</v>
       </c>
@@ -2070,251 +2054,251 @@
       <c r="D8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="67" t="s">
+      <c r="E8" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
       <c r="M8" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="62" t="s">
-        <v>175</v>
-      </c>
-      <c r="D9" s="62" t="s">
+      <c r="C9" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="D9" s="50" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="67" t="s">
+      <c r="F9" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="37" t="s">
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="41" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="61"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
       <c r="E10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="37"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="41"/>
     </row>
     <row r="11" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="69" t="s">
-        <v>176</v>
-      </c>
-      <c r="D11" s="69" t="s">
+      <c r="C11" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="D11" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="63" t="s">
+      <c r="E11" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="67" t="s">
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="37" t="s">
-        <v>195</v>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="41" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="73"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="64" t="s">
+      <c r="A12" s="48"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="37"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="41"/>
     </row>
     <row r="13" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="58" t="s">
-        <v>177</v>
-      </c>
-      <c r="D13" s="58" t="s">
+      <c r="C13" s="52" t="s">
+        <v>173</v>
+      </c>
+      <c r="D13" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="63" t="s">
+      <c r="E13" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="67" t="s">
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="37" t="s">
-        <v>196</v>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="41" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="65"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="66" t="s">
+      <c r="A14" s="60"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="37"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="41"/>
     </row>
     <row r="15" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="44" t="s">
-        <v>194</v>
-      </c>
-      <c r="B15" s="45" t="s">
+      <c r="A15" s="47" t="s">
+        <v>190</v>
+      </c>
+      <c r="B15" s="69" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="D15" s="46" t="s">
+      <c r="C15" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="D15" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="63" t="s">
+      <c r="E15" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="67" t="s">
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="37" t="s">
-        <v>197</v>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="41" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="44"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="64" t="s">
+      <c r="A16" s="47"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="37"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="41"/>
     </row>
     <row r="17" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="62" t="s">
-        <v>179</v>
-      </c>
-      <c r="D17" s="62" t="s">
+      <c r="C17" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="D17" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="63" t="s">
+      <c r="E17" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
       <c r="I17" s="59" t="s">
         <v>36</v>
       </c>
       <c r="J17" s="59"/>
       <c r="K17" s="59"/>
       <c r="L17" s="59"/>
-      <c r="M17" s="37" t="s">
+      <c r="M17" s="41" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="61"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="64" t="s">
+      <c r="A18" s="57"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="58" t="s">
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="37"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="41"/>
     </row>
     <row r="19" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
@@ -2324,159 +2308,159 @@
         <v>122</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="51" t="s">
+      <c r="E19" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
       <c r="M19" s="11" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="44" t="s">
-        <v>189</v>
-      </c>
-      <c r="B20" s="45" t="s">
+      <c r="A20" s="47" t="s">
+        <v>185</v>
+      </c>
+      <c r="B20" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="46" t="s">
-        <v>181</v>
-      </c>
-      <c r="D20" s="46" t="s">
+      <c r="C20" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" s="44" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="G20" s="51" t="s">
-        <v>185</v>
-      </c>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="37" t="s">
-        <v>188</v>
+      <c r="G20" s="66" t="s">
+        <v>181</v>
+      </c>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="41" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="44"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
+      <c r="A21" s="47"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
       <c r="E21" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F21" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="41"/>
+    </row>
+    <row r="22" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="57" t="s">
         <v>186</v>
       </c>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="37"/>
-    </row>
-    <row r="22" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="61" t="s">
-        <v>190</v>
-      </c>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="C22" s="62" t="s">
+      <c r="C22" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="62" t="s">
+      <c r="D22" s="50" t="s">
         <v>14</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="F22" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="37" t="s">
-        <v>192</v>
+        <v>187</v>
+      </c>
+      <c r="F22" s="76" t="s">
+        <v>181</v>
+      </c>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="77"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="41" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="61"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
       <c r="E23" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="F23" s="41"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="37"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="81"/>
+      <c r="M23" s="41"/>
     </row>
     <row r="24" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="80" t="s">
-        <v>208</v>
-      </c>
-      <c r="B24" s="81" t="s">
-        <v>209</v>
+      <c r="A24" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>205</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D24" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="82" t="s">
+      <c r="E24" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="83"/>
-      <c r="I24" s="83"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="83"/>
-      <c r="L24" s="84"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="72"/>
       <c r="M24" s="11" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="C25" s="58" t="s">
+      <c r="C25" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="58" t="s">
+      <c r="D25" s="52" t="s">
         <v>14</v>
       </c>
       <c r="E25" s="20" t="s">
@@ -2503,15 +2487,15 @@
       <c r="L25" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="M25" s="47" t="s">
+      <c r="M25" s="73" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="57"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
+      <c r="A26" s="68"/>
+      <c r="B26" s="75"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
       <c r="E26" s="6" t="s">
         <v>16</v>
       </c>
@@ -2536,19 +2520,19 @@
       <c r="L26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M26" s="47"/>
+      <c r="M26" s="73"/>
     </row>
     <row r="27" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="54" t="s">
+      <c r="B27" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="C27" s="46" t="s">
+      <c r="C27" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="46" t="s">
+      <c r="D27" s="44" t="s">
         <v>14</v>
       </c>
       <c r="E27" s="59" t="s">
@@ -2561,13 +2545,13 @@
       <c r="J27" s="59"/>
       <c r="K27" s="59"/>
       <c r="L27" s="59"/>
-      <c r="M27" s="47"/>
+      <c r="M27" s="73"/>
     </row>
     <row r="28" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="53"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
+      <c r="A28" s="63"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
       <c r="E28" s="59"/>
       <c r="F28" s="59"/>
       <c r="G28" s="59"/>
@@ -2576,7 +2560,7 @@
       <c r="J28" s="59"/>
       <c r="K28" s="59"/>
       <c r="L28" s="59"/>
-      <c r="M28" s="47"/>
+      <c r="M28" s="73"/>
     </row>
     <row r="29" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A29" s="16"/>
@@ -2766,26 +2750,49 @@
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="E3:L3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="I15:L16"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="M25:M28"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="G20:L21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="F22:L23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="E19:L19"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:L28"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E24:L24"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="F9:L10"/>
+    <mergeCell ref="I11:L12"/>
     <mergeCell ref="M9:M10"/>
     <mergeCell ref="M11:M12"/>
     <mergeCell ref="M13:M14"/>
@@ -2802,49 +2809,26 @@
     <mergeCell ref="I13:L14"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="F6:I6"/>
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="F9:L10"/>
-    <mergeCell ref="I11:L12"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="E19:L19"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:L28"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E24:L24"/>
-    <mergeCell ref="M25:M28"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="G20:L21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="F22:L23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="I15:L16"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E3:L3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2879,7 +2863,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2893,7 +2877,7 @@
         <v>59</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2906,8 +2890,8 @@
       <c r="C3" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="77" t="s">
-        <v>183</v>
+      <c r="D3" s="82" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2920,7 +2904,7 @@
       <c r="C4" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="78"/>
+      <c r="D4" s="83"/>
     </row>
     <row r="5" spans="1:4" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
@@ -2932,7 +2916,7 @@
       <c r="C5" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="78"/>
+      <c r="D5" s="83"/>
     </row>
     <row r="6" spans="1:4" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
@@ -2944,7 +2928,7 @@
       <c r="C6" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="79"/>
+      <c r="D6" s="84"/>
     </row>
     <row r="7" spans="1:4" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
@@ -2993,7 +2977,7 @@
         <v>69</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3089,7 +3073,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3376,10 +3360,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF462D7-2357-47D3-94E3-97990B89148D}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3398,10 +3382,10 @@
         <v>132</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>57</v>
@@ -3415,14 +3399,14 @@
         <v>0</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D2" s="31">
         <f>_xlfn.IFS(C2 = "uint8",1,C2 = "float",4)</f>
         <v>1</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3433,14 +3417,14 @@
         <v>1</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D3" s="31">
-        <f t="shared" ref="D3:D23" si="0">_xlfn.IFS(C3 = "uint8",1,C3 = "float",4)</f>
+        <f t="shared" ref="D3:D21" si="0">_xlfn.IFS(C3 = "uint8",1,C3 = "float",4)</f>
         <v>1</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3451,14 +3435,14 @@
         <v>2</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D4" s="31">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3469,14 +3453,14 @@
         <v>3</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D5" s="31">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3487,14 +3471,14 @@
         <v>4</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D6" s="31">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3505,14 +3489,14 @@
         <v>5</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D7" s="31">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3523,176 +3507,176 @@
         <v>6</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D8" s="31">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
-        <v>140</v>
+        <v>196</v>
       </c>
       <c r="B9" s="31">
         <v>7</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="D9" s="31">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>157</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B10" s="31">
         <v>8</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D10" s="31">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="B11" s="31">
         <v>9</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="D11" s="31">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="B12" s="31">
         <v>10</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="D12" s="31">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B13" s="31">
         <v>11</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D13" s="31">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="B14" s="31">
         <v>12</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="D14" s="31">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>204</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
-        <v>146</v>
+        <v>201</v>
       </c>
       <c r="B15" s="31">
         <v>13</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="D15" s="31">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B16" s="31">
         <v>14</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D16" s="31">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
-        <v>205</v>
+        <v>147</v>
       </c>
       <c r="B17" s="31">
         <v>15</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="D17" s="31">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>206</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3703,14 +3687,14 @@
         <v>16</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D18" s="31">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3721,14 +3705,14 @@
         <v>17</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D19" s="31">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3739,74 +3723,38 @@
         <v>18</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D20" s="31">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="B21" s="31">
         <v>19</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D21" s="31">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="B22" s="31">
-        <v>20</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="D22" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="B23" s="31">
-        <v>21</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="D23" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C23" xr:uid="{79CA3251-1E85-457B-8881-99E41EFF55EF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C21" xr:uid="{79CA3251-1E85-457B-8881-99E41EFF55EF}">
       <formula1>"uint8,float"</formula1>
     </dataValidation>
   </dataValidations>

--- a/YXS-FOC：CAN通信协议.xlsx
+++ b/YXS-FOC：CAN通信协议.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YXS\GD32_Project\YXS-FOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5ECC6A-33F0-4AE1-B080-B7647D2A625F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7583CC73-95E0-4CF1-A3C7-EA276959D27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="协议格式" sheetId="1" r:id="rId1"/>
@@ -922,10 +922,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>标准帧ID中高6位为节点ID，低5位为命令ID，节点ID范围为0x00-0x3F，共计64个ID，其中0x3F为广播ID，所有的节点(除发出者)外都会响应该节点ID的命令。拓展帧未使用。电流力矩默认指Iq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>高温警告( &gt;55℃ )</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -974,6 +970,10 @@
   </si>
   <si>
     <t>反转4P接口模式,若当前为串口模式,则反转为烧录模式;反之则为烧录模式反转为串口模式(2312S电机特有)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准帧ID中高6位为节点ID，低5位为命令ID，节点ID范围为0x00-0x3F，共计64个ID，其中0x3F为广播ID，所有的节点(除发出者)外都会响应该节点ID的命令。拓展帧未使用。电流力矩默认指Iq，字节序为小端模式</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1428,134 +1428,134 @@
     <xf numFmtId="0" fontId="6" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1849,8 +1849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1865,71 +1865,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
-        <v>194</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
+      <c r="A1" s="44" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
     </row>
     <row r="3" spans="1:13" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39" t="s">
+      <c r="C3" s="80"/>
+      <c r="D3" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39" t="s">
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="39"/>
+      <c r="A4" s="80"/>
       <c r="B4" s="21" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="39"/>
+      <c r="D4" s="80"/>
       <c r="E4" s="14" t="s">
         <v>2</v>
       </c>
@@ -1954,65 +1954,65 @@
       <c r="L4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="39"/>
+      <c r="M4" s="80"/>
     </row>
     <row r="5" spans="1:13" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="75" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="69" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="81" t="s">
         <v>130</v>
       </c>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
       <c r="J5" s="2" t="s">
         <v>128</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="L5" s="43" t="s">
+      <c r="L5" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="41" t="s">
+      <c r="M5" s="44" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="51"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
+      <c r="A6" s="73"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
       <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
       <c r="J6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="43"/>
-      <c r="M6" s="41"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="44"/>
     </row>
     <row r="7" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
@@ -2027,16 +2027,16 @@
       <c r="D7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
       <c r="M7" s="11" t="s">
         <v>24</v>
       </c>
@@ -2054,251 +2054,251 @@
       <c r="D8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
       <c r="M8" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="46" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="45" t="s">
+      <c r="F9" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="41" t="s">
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="44" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="57"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="41"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="44"/>
     </row>
     <row r="11" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="74" t="s">
         <v>172</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="45" t="s">
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="41" t="s">
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="44" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="48"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="46" t="s">
+      <c r="A12" s="78"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="41"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="44"/>
     </row>
     <row r="13" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="52" t="s">
+      <c r="C13" s="60" t="s">
         <v>173</v>
       </c>
-      <c r="D13" s="52" t="s">
+      <c r="D13" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="45" t="s">
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="41" t="s">
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="44" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="60"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="61" t="s">
+      <c r="A14" s="70"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="41"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="44"/>
     </row>
     <row r="15" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="57" t="s">
         <v>174</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="45" t="s">
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="41" t="s">
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="44" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="47"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="46" t="s">
+      <c r="A16" s="62"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="41"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="44"/>
     </row>
     <row r="17" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="54" t="s">
+      <c r="B17" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="D17" s="50" t="s">
+      <c r="D17" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="42" t="s">
+      <c r="E17" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="59" t="s">
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="41" t="s">
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="44" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="57"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="46" t="s">
+      <c r="A18" s="66"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="52" t="s">
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="41"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="44"/>
     </row>
     <row r="19" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
@@ -2313,31 +2313,31 @@
       <c r="D19" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="66" t="s">
+      <c r="E19" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="66"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
       <c r="M19" s="11" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="D20" s="44" t="s">
+      <c r="D20" s="57" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="25" t="s">
@@ -2346,121 +2346,121 @@
       <c r="F20" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="G20" s="66" t="s">
+      <c r="G20" s="45" t="s">
         <v>181</v>
       </c>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="41" t="s">
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="44" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="47"/>
-      <c r="B21" s="69"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
+      <c r="A21" s="62"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
       <c r="E21" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66"/>
-      <c r="M21" s="41"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="44"/>
     </row>
     <row r="22" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="57" t="s">
+      <c r="A22" s="66" t="s">
         <v>186</v>
       </c>
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="50" t="s">
+      <c r="D22" s="46" t="s">
         <v>14</v>
       </c>
       <c r="E22" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="F22" s="76" t="s">
+      <c r="F22" s="47" t="s">
         <v>181</v>
       </c>
-      <c r="G22" s="77"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="41" t="s">
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="44" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="57"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
       <c r="E23" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="F23" s="79"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="80"/>
-      <c r="K23" s="80"/>
-      <c r="L23" s="81"/>
-      <c r="M23" s="41"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="44"/>
     </row>
     <row r="24" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="B24" s="38" t="s">
         <v>204</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="C24" s="19" t="s">
         <v>205</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>206</v>
       </c>
       <c r="D24" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="70" t="s">
+      <c r="E24" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="72"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="65"/>
       <c r="M24" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="67" t="s">
+      <c r="A25" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="74" t="s">
+      <c r="B25" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="C25" s="52" t="s">
+      <c r="C25" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="52" t="s">
+      <c r="D25" s="60" t="s">
         <v>14</v>
       </c>
       <c r="E25" s="20" t="s">
@@ -2487,15 +2487,15 @@
       <c r="L25" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="M25" s="73" t="s">
+      <c r="M25" s="39" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="68"/>
-      <c r="B26" s="75"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
+      <c r="A26" s="59"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
       <c r="E26" s="6" t="s">
         <v>16</v>
       </c>
@@ -2520,47 +2520,47 @@
       <c r="L26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M26" s="73"/>
+      <c r="M26" s="39"/>
     </row>
     <row r="27" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="62" t="s">
+      <c r="A27" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="64" t="s">
+      <c r="B27" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="C27" s="44" t="s">
+      <c r="C27" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="44" t="s">
+      <c r="D27" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="59" t="s">
+      <c r="E27" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="73"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="39"/>
     </row>
     <row r="28" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="63"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="73"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="39"/>
     </row>
     <row r="29" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A29" s="16"/>
@@ -2750,33 +2750,42 @@
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="M25:M28"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="G20:L21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="F22:L23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="E19:L19"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:L28"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E24:L24"/>
-    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="E3:L3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="I15:L16"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="E7:L7"/>
+    <mergeCell ref="E8:L8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="I13:L14"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="F6:I6"/>
     <mergeCell ref="A1:M2"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="C17:C18"/>
@@ -2793,42 +2802,33 @@
     <mergeCell ref="E16:H16"/>
     <mergeCell ref="F9:L10"/>
     <mergeCell ref="I11:L12"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="E7:L7"/>
-    <mergeCell ref="E8:L8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="I13:L14"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="I15:L16"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E3:L3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="E19:L19"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:L28"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E24:L24"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="M25:M28"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="G20:L21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="F22:L23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3073,7 +3073,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3362,7 +3362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF462D7-2357-47D3-94E3-97990B89148D}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -3519,20 +3519,20 @@
     </row>
     <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B9" s="31">
         <v>7</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D9" s="31">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3573,20 +3573,20 @@
     </row>
     <row r="12" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B12" s="31">
         <v>10</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D12" s="31">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3627,20 +3627,20 @@
     </row>
     <row r="15" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B15" s="31">
         <v>13</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D15" s="31">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3748,7 +3748,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
